--- a/pantry_shop_crm/upFormats/up-materials.xlsx
+++ b/pantry_shop_crm/upFormats/up-materials.xlsx
@@ -1,35 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28311"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28330"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aristo\Desktop\Gui_backup\Final Version\pantry_shop_crm\upFormats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aristo\Desktop\Pantry_Gui\pantry_shop_crm\upFormats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2408E7F8-F9F8-4DE4-924A-833773403396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485FF197-0AFE-44A4-95B8-357E55FCCBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{765ADB97-6DE7-42E4-8244-639B2FC0D8B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -62,9 +51,6 @@
     <t>Active</t>
   </si>
   <si>
-    <t>Rice Bag</t>
-  </si>
-  <si>
     <t>Premium quality rice</t>
   </si>
   <si>
@@ -90,6 +76,9 @@
   </si>
   <si>
     <t>vendor_id</t>
+  </si>
+  <si>
+    <t>Rice Bag1</t>
   </si>
 </sst>
 </file>
@@ -490,7 +479,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,8 +491,8 @@
     <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -532,18 +521,18 @@
         <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="D2" s="3">
         <v>50</v>
@@ -557,22 +546,22 @@
       <c r="G2" s="3">
         <v>1</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="4">
-        <v>1</v>
+      <c r="H2" s="4">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="D3" s="3">
         <v>100</v>
@@ -586,22 +575,22 @@
       <c r="G3" s="3">
         <v>1</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="4">
-        <v>2</v>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D4" s="3">
         <v>200</v>
@@ -615,11 +604,11 @@
       <c r="G4" s="3">
         <v>1</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="4">
-        <v>1</v>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
